--- a/data/shrub_density_20250811.xlsx
+++ b/data/shrub_density_20250811.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/work/Library/CloudStorage/Dropbox/GRADSCHOOL/Dissertation/R_dissertation/chaparraldegradation_2022/chaparraldegradation_2022/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97DA25C-E262-FD47-831E-37F41BC94242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB5AC83-C0CD-254E-9C6F-2967FDE02708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{A562526E-EC68-D541-A607-55944DC93744}"/>
+    <workbookView xWindow="-43880" yWindow="-12660" windowWidth="28800" windowHeight="18760" activeTab="1" xr2:uid="{A562526E-EC68-D541-A607-55944DC93744}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$C$4:$J$43</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="27">
   <si>
     <t>NA</t>
   </si>
@@ -111,13 +112,16 @@
     <t>dead</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>lifestage</t>
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>MEAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (a)</t>
   </si>
 </sst>
 </file>
@@ -179,9 +183,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -189,6 +190,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1376,41 +1380,59 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AFE1AD6-0861-7544-9423-2B69C71583F8}">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:AF43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="4" width="27" customWidth="1"/>
-    <col min="6" max="10" width="10.83203125" style="9"/>
+    <col min="6" max="11" width="10.83203125" style="8"/>
+    <col min="12" max="12" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="M2" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+      <c r="U2">
+        <v>3</v>
+      </c>
+      <c r="Y2">
+        <v>4</v>
+      </c>
+      <c r="AC2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1419,443 +1441,744 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="6">
+        <v>23</v>
+      </c>
+      <c r="F3" s="5">
         <v>1</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>2</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>3</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <v>4</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K3" s="6"/>
+      <c r="M3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="F4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="5">
         <v>0.1875</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="6">
+      <c r="H4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="5">
         <v>1.55</v>
       </c>
-      <c r="J4" s="6">
-        <v>1.2500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J4" s="5">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0.1125</v>
+      </c>
+      <c r="O4" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>0.1875</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="S4" s="5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="T4" s="5">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4" s="5">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>1.55</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC4" s="5">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="AE4" s="5">
+        <v>0.1875</v>
+      </c>
+      <c r="AF4" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>0.1125</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>0.16250000000000001</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>0.17499999999999999</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>0.5</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>0.47499999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K5" s="5"/>
+      <c r="L5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="5">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="S5" s="5">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="Z5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF5" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="6">
+      <c r="H6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="5">
         <v>0.36249999999999999</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <v>0.1875</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K6" s="5"/>
+      <c r="L6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="AA6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF6" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="6">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="6">
+      <c r="F7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K7" s="5"/>
+      <c r="L7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="6">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="6">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F9" s="5">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="6">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="6">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="6">
-        <v>1.2500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="6">
+      <c r="F13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K13" s="5"/>
+      <c r="L13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="6">
-        <v>1.2500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="5">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="6">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="6">
-        <v>1.2500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="6">
+      <c r="F16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="5">
         <v>0.1</v>
       </c>
-      <c r="H16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="6">
+      <c r="F17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="5">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="H17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="7"/>
+      <c r="L18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="6">
-        <v>0.15</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M18" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1868,23 +2191,24 @@
       <c r="E19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="6">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I19" s="6">
+      <c r="F19" s="5">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="5">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="J19" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1897,23 +2221,24 @@
       <c r="E20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J20" s="6">
+      <c r="F20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="5">
         <v>8.7499999999999994E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1924,23 +2249,24 @@
       <c r="E21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J21" s="6">
+      <c r="F21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="5">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1951,23 +2277,24 @@
       <c r="E22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J22" s="6">
+      <c r="F22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="5">
         <v>6.25E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1978,23 +2305,24 @@
       <c r="E23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J23" s="6">
+      <c r="F23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="5">
         <v>0.28749999999999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -2007,23 +2335,24 @@
       <c r="E24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <v>0.2</v>
       </c>
-      <c r="H24" s="6">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="I24" s="7">
+      <c r="H24" s="5">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="I24" s="6">
         <v>0.2</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="6">
         <v>2.7250000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -2034,23 +2363,24 @@
       <c r="E25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <v>0.5625</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <v>2.4874999999999998</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="5">
         <v>0.76249999999999996</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="5">
         <v>0.88749999999999996</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="5">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -2061,23 +2391,24 @@
       <c r="E26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="5">
         <v>0.15</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="5">
         <v>0.6</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="5">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="5">
         <v>0.15</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -2088,23 +2419,24 @@
       <c r="E27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" s="6">
+      <c r="F27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="5">
         <v>3.1749999999999998</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="5">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="5">
         <v>0.45</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="5">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -2117,23 +2449,24 @@
       <c r="E28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J28" s="6">
+      <c r="F28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -2146,23 +2479,24 @@
       <c r="E29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" s="6">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J29" s="6">
+      <c r="F29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="5">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -2173,23 +2507,24 @@
       <c r="E30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J30" s="6">
+      <c r="F30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="5">
         <v>0.13750000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -2200,23 +2535,24 @@
       <c r="E31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J31" s="6">
+      <c r="F31" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -2227,23 +2563,24 @@
       <c r="E32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J32" s="6">
-        <v>1.2500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" s="5">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -2256,23 +2593,24 @@
       <c r="E33" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J33" s="6">
-        <v>1.2500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F33" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" s="5">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="K33" s="5"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -2283,23 +2621,24 @@
       <c r="E34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F34" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" s="6">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J34" s="6">
+      <c r="F34" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="5">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" s="5">
         <v>0.13750000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -2310,23 +2649,24 @@
       <c r="E35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G35" s="6">
+      <c r="F35" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="5">
         <v>6.25E-2</v>
       </c>
-      <c r="H35" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J35" s="6">
+      <c r="H35" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -2337,23 +2677,24 @@
       <c r="E36" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F36" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I36" s="6">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="J36" s="6">
-        <v>1.2500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F36" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" s="5">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="J36" s="5">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -2366,23 +2707,24 @@
       <c r="E37" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="6">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H37" s="6">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F37" s="5">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="5">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K37" s="7"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -2395,23 +2737,24 @@
       <c r="E38" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G38" s="6">
+      <c r="F38" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="5">
         <v>1.8125</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="5">
         <v>0.58750000000000002</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I38" s="5">
         <v>4.7625000000000002</v>
       </c>
-      <c r="J38" s="6">
+      <c r="J38" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K38" s="5"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -2422,23 +2765,24 @@
       <c r="E39" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="5">
         <v>0.51249999999999996</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="5">
         <v>1.3374999999999999</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H39" s="5">
         <v>0.3</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I39" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J39" s="5">
         <v>0.36249999999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K39" s="5"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -2449,23 +2793,24 @@
       <c r="E40" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="5">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="5">
         <v>0.33750000000000002</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40" s="5">
         <v>0.25</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I40" s="5">
         <v>1.1375</v>
       </c>
-      <c r="J40" s="6">
+      <c r="J40" s="5">
         <v>0.27500000000000002</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K40" s="5"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -2476,23 +2821,24 @@
       <c r="E41" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F41" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G41" s="6">
+      <c r="F41" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" s="5">
         <v>0.1125</v>
       </c>
-      <c r="H41" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I41" s="6">
+      <c r="H41" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I41" s="5">
         <v>6.25E-2</v>
       </c>
-      <c r="J41" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J41" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K41" s="7"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -2505,23 +2851,24 @@
       <c r="E42" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F42" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G42" s="6">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J42" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F42" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="5">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K42" s="7"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -2534,21 +2881,22 @@
       <c r="E43" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F43" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H43" s="6">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J43" s="8" t="s">
-        <v>25</v>
-      </c>
+      <c r="F43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" s="5">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K43" s="7"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C4:J43">
@@ -2562,4 +2910,16 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5EB09F7-5032-6446-80C5-C11350D7DE1D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>